--- a/biology/Zoologie/Dasyprocta_prymnolopha/Dasyprocta_prymnolopha.xlsx
+++ b/biology/Zoologie/Dasyprocta_prymnolopha/Dasyprocta_prymnolopha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasyprocta prymnolopha ou Agouti à dos noir ou Agouti à croupe noire est une espèce de rongeurs de la famille des Dasyproctidae. C'est une espèce de mammifère terrestre vivant dans des régions semi-arides endémique du Brésil[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasyprocta prymnolopha ou Agouti à dos noir ou Agouti à croupe noire est une espèce de rongeurs de la famille des Dasyproctidae. C'est une espèce de mammifère terrestre vivant dans des régions semi-arides endémique du Brésil.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été décrite pour la première fois en 1831 par le zoologiste allemand Johann Georg Wagler (1800-1832).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasyprocta prymnolopha est un rongeur haut sur pattes et sans queue. Il pèse 2 kg pour une taille d'environ 40 centimètres à l'âge adulte. Ce rongeur est réputé pour être rapide et infatigable.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans la forêt tropicale et la savane boisée.
 </t>
@@ -604,9 +622,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Agouti à dos noir préfère vivre seul ou en couple. Il défend un territoire farouchement contre ses semblables. Son territoire est délimité par des sécrétions particulièrement fortes provenant de ses glandes anales[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agouti à dos noir préfère vivre seul ou en couple. Il défend un territoire farouchement contre ses semblables. Son territoire est délimité par des sécrétions particulièrement fortes provenant de ses glandes anales.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasyprocta prymnolopha se nourrit de graines, noix du Brésil, et fruits tombés.
 </t>
@@ -666,7 +688,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle Agouti à dos noir donne naissance de 2 à 5 petits, après une gestation de 3,5 mois.
 </t>
@@ -697,9 +721,11 @@
           <t>Agouti écolo</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est grâce à une partie des graines d'arbres que les agoutis enfouissent en garde manger qu'une partie va germer. Notamment l'arbre des noix du brésil, que l'agouti à dos noir est un des seuls à ronger. S'il venait à disparaitre il en serait de même pour ses noix[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est grâce à une partie des graines d'arbres que les agoutis enfouissent en garde manger qu'une partie va germer. Notamment l'arbre des noix du brésil, que l'agouti à dos noir est un des seuls à ronger. S'il venait à disparaitre il en serait de même pour ses noix.
 </t>
         </is>
       </c>
